--- a/Electronics/Filters/Notch/Active TwinT Notch Filter/RCValueSelection.xlsx
+++ b/Electronics/Filters/Notch/Active TwinT Notch Filter/RCValueSelection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\EEG\Notch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\Anima-EEG\Electronics\Filters\Notch\Active TwinT Notch Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>R</t>
   </si>
@@ -138,9 +138,6 @@
     <t>10M</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>4.7M</t>
   </si>
   <si>
@@ -177,10 +174,22 @@
     <t>68 kOhm</t>
   </si>
   <si>
-    <t>TRY THIS VALUE FOR THE SAKE OF TESTING AND CONFIRMING OPERATION OF THE TWIN T NOTCH FILTER, FIRST WITH PASSIVE TO CONFIRM CAP VALUES, THEN WITH ACTIVE</t>
-  </si>
-  <si>
     <t>56.4k???</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNF14FTD12K1/RNF14FTD12K1CT-ND/1975097</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/products/en/resistors/chip-resistor-surface-mount/52?FV=40087%2Cc0001%2Cc0163%2Cc0165%2Cc0172%2Cc0179%2Cc017c%2Cc002a%2Cc01af%2Cffe00034&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000008&amp;page=1&amp;stock=1&amp;pbfree=1&amp;rohs=1&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t>THIS WAS THE KAKA THAT DIDN'T WORK BC MISLABELLED CAPS</t>
+  </si>
+  <si>
+    <t>RESISTOR VALUE TOO HIGH, SINCE SCOPES ARE LIKE 10M OHMS, SO WEIRD WOBBLES</t>
+  </si>
+  <si>
+    <t>THIS WORKED, BUT NO 1% TOLERANCE RESISTORS AVAIL. AT THIS VALUE</t>
   </si>
 </sst>
 </file>
@@ -204,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,18 +239,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,13 +1725,13 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>10*10^-12</f>
         <v>9.9999999999999994E-12</v>
@@ -1744,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>22*10^-12</f>
         <v>2.1999999999999998E-11</v>
@@ -1757,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>33*10^-12</f>
         <v>3.3000000000000002E-11</v>
@@ -1770,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>47*10^-12</f>
         <v>4.6999999999999999E-11</v>
@@ -1783,7 +1800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>68*10^-12</f>
         <v>6.7999999999999998E-11</v>
@@ -1796,7 +1813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>100*10^-12</f>
         <v>1E-10</v>
@@ -1809,7 +1826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>220*10^-12</f>
         <v>2.1999999999999999E-10</v>
@@ -1828,7 +1845,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>330*10^-12</f>
         <v>3.3E-10</v>
@@ -1841,14 +1858,14 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <f>1 - 9.1/8.04</f>
         <v>-0.13184079601990062</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>470*10^-12</f>
         <v>4.7000000000000003E-10</v>
@@ -1861,11 +1878,11 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>510*10^-12</f>
         <v>5.1E-10</v>
@@ -1878,11 +1895,11 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>560*10^-12</f>
         <v>5.6000000000000003E-10</v>
@@ -1895,14 +1912,14 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
         <f xml:space="preserve"> 1 - 4.7 / 4.74</f>
         <v>8.4388185654008518E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>680*10^-12</f>
         <v>6.8000000000000003E-10</v>
@@ -1915,13 +1932,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>1*10^-9</f>
         <v>1.0000000000000001E-9</v>
@@ -1934,11 +1954,11 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>0.0022*10^-6</f>
         <v>2.1999999999999998E-9</v>
@@ -1951,11 +1971,11 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>0.0033*10^-6</f>
         <v>3.2999999999999998E-9</v>
@@ -1968,11 +1988,11 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>0.00357*10^-6</f>
         <v>3.5699999999999995E-9</v>
@@ -1986,24 +2006,24 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <f>0.0047*10^-6</f>
         <v>4.6999999999999999E-9</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>564379.23082232394</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>0.0068*10^-6</f>
         <v>6.7999999999999997E-9</v>
@@ -2017,7 +2037,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>0.01*10^-6</f>
         <v>1E-8</v>
@@ -2030,11 +2050,11 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f>0.015*10^-6</f>
         <v>1.4999999999999999E-8</v>
@@ -2048,7 +2068,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>0.022*10^-6</f>
         <v>2.1999999999999998E-8</v>
@@ -2061,11 +2081,11 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f>0.033*10^-6</f>
         <v>3.2999999999999998E-8</v>
@@ -2078,11 +2098,11 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f>0.039*10^-6</f>
         <v>3.8999999999999998E-8</v>
@@ -2099,13 +2119,16 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f>0.047*10^-6</f>
         <v>4.6999999999999997E-8</v>
@@ -2118,13 +2141,13 @@
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f>0.068*10^-6</f>
         <v>6.8E-8</v>
@@ -2137,7 +2160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f>0.1*10^-6</f>
         <v>9.9999999999999995E-8</v>
@@ -2150,23 +2173,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <f>0.22*10^-6</f>
         <v>2.1999999999999998E-7</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <f t="shared" si="0"/>
         <v>12057.192658476923</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f>0.33*10^-6</f>
         <v>3.3000000000000002E-7</v>
@@ -2178,8 +2203,11 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>0.47*10^-6</f>
         <v>4.6999999999999995E-7</v>
@@ -2192,7 +2220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f>1*10^-6</f>
         <v>9.9999999999999995E-7</v>
